--- a/Code/Results/Cases/Case_1_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9619082128712808</v>
+        <v>1.011373231998788</v>
       </c>
       <c r="D2">
-        <v>1.034883947032932</v>
+        <v>1.032035228338414</v>
       </c>
       <c r="E2">
-        <v>0.9733888111354644</v>
+        <v>1.013534140562208</v>
       </c>
       <c r="F2">
-        <v>0.979937668729844</v>
+        <v>1.025684107681387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047591411962661</v>
+        <v>1.031307747648028</v>
       </c>
       <c r="J2">
-        <v>0.9852911599927799</v>
+        <v>1.016622080019619</v>
       </c>
       <c r="K2">
-        <v>1.045877778572299</v>
+        <v>1.034841621578659</v>
       </c>
       <c r="L2">
-        <v>0.9852317677621585</v>
+        <v>1.016395004300311</v>
       </c>
       <c r="M2">
-        <v>0.9916837650607465</v>
+        <v>1.028508958798792</v>
       </c>
       <c r="N2">
-        <v>0.9866903864544454</v>
+        <v>1.01806579998143</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9677993921373486</v>
+        <v>1.01258891769867</v>
       </c>
       <c r="D3">
-        <v>1.036971516753018</v>
+        <v>1.032452732606883</v>
       </c>
       <c r="E3">
-        <v>0.9781661975324656</v>
+        <v>1.014573472503753</v>
       </c>
       <c r="F3">
-        <v>0.9862761708278629</v>
+        <v>1.027029552794126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048282343771445</v>
+        <v>1.031373466714418</v>
       </c>
       <c r="J3">
-        <v>0.9892081029186064</v>
+        <v>1.017469576625707</v>
       </c>
       <c r="K3">
-        <v>1.047152223778787</v>
+        <v>1.035068862086806</v>
       </c>
       <c r="L3">
-        <v>0.9890862848272436</v>
+        <v>1.017238433326009</v>
       </c>
       <c r="M3">
-        <v>0.997087715421215</v>
+        <v>1.029660299467545</v>
       </c>
       <c r="N3">
-        <v>0.9906128918885059</v>
+        <v>1.018914500129908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9715153170774254</v>
+        <v>1.01337547087054</v>
       </c>
       <c r="D4">
-        <v>1.038293563950809</v>
+        <v>1.032722402689852</v>
       </c>
       <c r="E4">
-        <v>0.9811867395781406</v>
+        <v>1.01524624216872</v>
       </c>
       <c r="F4">
-        <v>0.9902721391240157</v>
+        <v>1.027899267877749</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048706026449768</v>
+        <v>1.031414256784638</v>
       </c>
       <c r="J4">
-        <v>0.9916768378240155</v>
+        <v>1.01801744984403</v>
       </c>
       <c r="K4">
-        <v>1.047950784218929</v>
+        <v>1.035214684451568</v>
       </c>
       <c r="L4">
-        <v>0.9915176556144034</v>
+        <v>1.017783849402546</v>
       </c>
       <c r="M4">
-        <v>1.000489406310747</v>
+        <v>1.030403892602807</v>
       </c>
       <c r="N4">
-        <v>0.993085132680649</v>
+        <v>1.019463151391042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9730556097885569</v>
+        <v>1.013706122056136</v>
       </c>
       <c r="D5">
-        <v>1.038842610734945</v>
+        <v>1.032835654442424</v>
       </c>
       <c r="E5">
-        <v>0.9824404248267644</v>
+        <v>1.015529136345781</v>
       </c>
       <c r="F5">
-        <v>0.9919279434311528</v>
+        <v>1.02826468856932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048878634618089</v>
+        <v>1.031430989025182</v>
       </c>
       <c r="J5">
-        <v>0.9926996480025212</v>
+        <v>1.018247654262254</v>
       </c>
       <c r="K5">
-        <v>1.048280365600418</v>
+        <v>1.035275695452555</v>
       </c>
       <c r="L5">
-        <v>0.9925254499076611</v>
+        <v>1.018013062514757</v>
       </c>
       <c r="M5">
-        <v>1.001897703839484</v>
+        <v>1.030716165782586</v>
       </c>
       <c r="N5">
-        <v>0.994109395366926</v>
+        <v>1.019693682725946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9733129795246344</v>
+        <v>1.013761638996323</v>
       </c>
       <c r="D6">
-        <v>1.038934406703215</v>
+        <v>1.032854662961379</v>
       </c>
       <c r="E6">
-        <v>0.9826499988960965</v>
+        <v>1.015576639187636</v>
       </c>
       <c r="F6">
-        <v>0.9922045788815864</v>
+        <v>1.028326032218047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048907295879915</v>
+        <v>1.031433774034169</v>
       </c>
       <c r="J6">
-        <v>0.9928705196042519</v>
+        <v>1.018286299517072</v>
       </c>
       <c r="K6">
-        <v>1.048335347239017</v>
+        <v>1.035285922265813</v>
       </c>
       <c r="L6">
-        <v>0.9926938399355707</v>
+        <v>1.018051543763504</v>
       </c>
       <c r="M6">
-        <v>1.002132913520074</v>
+        <v>1.030768578334837</v>
       </c>
       <c r="N6">
-        <v>0.9942805096259305</v>
+        <v>1.019732382861457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9715359831077444</v>
+        <v>1.013379889106574</v>
       </c>
       <c r="D7">
-        <v>1.038300926650118</v>
+        <v>1.032723916429626</v>
       </c>
       <c r="E7">
-        <v>0.9812035538413588</v>
+        <v>1.015250021969976</v>
       </c>
       <c r="F7">
-        <v>0.9902943573015279</v>
+        <v>1.02790415145916</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048708354372255</v>
+        <v>1.031414481996706</v>
       </c>
       <c r="J7">
-        <v>0.9916905628880942</v>
+        <v>1.018020526322211</v>
       </c>
       <c r="K7">
-        <v>1.047955212056898</v>
+        <v>1.035215500835358</v>
       </c>
       <c r="L7">
-        <v>0.9915311773585085</v>
+        <v>1.017786912471316</v>
       </c>
       <c r="M7">
-        <v>1.000508308363627</v>
+        <v>1.030408066519731</v>
       </c>
       <c r="N7">
-        <v>0.9930988772358925</v>
+        <v>1.019466232238175</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9639197514978987</v>
+        <v>1.011784096139778</v>
       </c>
       <c r="D8">
-        <v>1.035595491456768</v>
+        <v>1.032176424753418</v>
       </c>
       <c r="E8">
-        <v>0.9750184903047565</v>
+        <v>1.013885336231729</v>
       </c>
       <c r="F8">
-        <v>0.9821023499566273</v>
+        <v>1.026138990515252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047829818200075</v>
+        <v>1.031330316478876</v>
       </c>
       <c r="J8">
-        <v>0.9866289708916475</v>
+        <v>1.016908602753379</v>
       </c>
       <c r="K8">
-        <v>1.046313955876141</v>
+        <v>1.034918669894545</v>
       </c>
       <c r="L8">
-        <v>0.9865478333436916</v>
+        <v>1.016680116060586</v>
       </c>
       <c r="M8">
-        <v>0.993530341016876</v>
+        <v>1.028898351172271</v>
       </c>
       <c r="N8">
-        <v>0.9880300971982382</v>
+        <v>1.018352729610336</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9497087284180007</v>
+        <v>1.00897140005891</v>
       </c>
       <c r="D9">
-        <v>1.030601182758995</v>
+        <v>1.031208057710918</v>
       </c>
       <c r="E9">
-        <v>0.9635394645546932</v>
+        <v>1.011482456214916</v>
       </c>
       <c r="F9">
-        <v>0.966803106685467</v>
+        <v>1.023021709170121</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046097979108882</v>
+        <v>1.031168749680305</v>
       </c>
       <c r="J9">
-        <v>0.9771715527494159</v>
+        <v>1.014945248553917</v>
       </c>
       <c r="K9">
-        <v>1.04321654789825</v>
+        <v>1.034386347070717</v>
       </c>
       <c r="L9">
-        <v>0.9772531501463293</v>
+        <v>1.014727143959245</v>
       </c>
       <c r="M9">
-        <v>0.980458766461808</v>
+        <v>1.026227213278787</v>
       </c>
       <c r="N9">
-        <v>0.978559248437464</v>
+        <v>1.016386587222711</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9396194154496444</v>
+        <v>1.007095629892131</v>
       </c>
       <c r="D10">
-        <v>1.027108747476311</v>
+        <v>1.030560159682543</v>
       </c>
       <c r="E10">
-        <v>0.955437919835693</v>
+        <v>1.009881704194111</v>
       </c>
       <c r="F10">
-        <v>0.955936353110925</v>
+        <v>1.020938751910089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044812867321203</v>
+        <v>1.03105216305053</v>
       </c>
       <c r="J10">
-        <v>0.9704518584065066</v>
+        <v>1.013633557449773</v>
       </c>
       <c r="K10">
-        <v>1.041005207948971</v>
+        <v>1.034025307423701</v>
       </c>
       <c r="L10">
-        <v>0.9706612310164103</v>
+        <v>1.013423291561006</v>
       </c>
       <c r="M10">
-        <v>0.9711495311921673</v>
+        <v>1.024439039966655</v>
       </c>
       <c r="N10">
-        <v>0.9718300113578281</v>
+        <v>1.015073033366746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.935083337363706</v>
+        <v>1.006283211648611</v>
       </c>
       <c r="D11">
-        <v>1.025555298370028</v>
+        <v>1.030279085851953</v>
       </c>
       <c r="E11">
-        <v>0.9518085213072129</v>
+        <v>1.009188817235273</v>
       </c>
       <c r="F11">
-        <v>0.9510506937983091</v>
+        <v>1.020035638405816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044223659090448</v>
+        <v>1.030999582288564</v>
       </c>
       <c r="J11">
-        <v>0.9674303730979334</v>
+        <v>1.013064897179479</v>
       </c>
       <c r="K11">
-        <v>1.040010851714998</v>
+        <v>1.033867528167864</v>
       </c>
       <c r="L11">
-        <v>0.9677003152972701</v>
+        <v>1.012858245621728</v>
       </c>
       <c r="M11">
-        <v>0.9669587810086678</v>
+        <v>1.023662951298119</v>
       </c>
       <c r="N11">
-        <v>0.9688042351935474</v>
+        <v>1.014503565533642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9333712437434126</v>
+        <v>1.005981410386023</v>
       </c>
       <c r="D12">
-        <v>1.024971848344863</v>
+        <v>1.030174604816601</v>
       </c>
       <c r="E12">
-        <v>0.9504407424512339</v>
+        <v>1.008931483744683</v>
       </c>
       <c r="F12">
-        <v>0.9492067469820022</v>
+        <v>1.019700001205032</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043999711345411</v>
+        <v>1.030979736833185</v>
       </c>
       <c r="J12">
-        <v>0.9662899744529413</v>
+        <v>1.012853565875572</v>
       </c>
       <c r="K12">
-        <v>1.039635771007256</v>
+        <v>1.03380870579526</v>
       </c>
       <c r="L12">
-        <v>0.9665832675170989</v>
+        <v>1.012648290128377</v>
       </c>
       <c r="M12">
-        <v>0.965376352450224</v>
+        <v>1.023374404485686</v>
       </c>
       <c r="N12">
-        <v>0.9676622170516735</v>
+        <v>1.014291934115043</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9337397595198206</v>
+        <v>1.00604614932566</v>
       </c>
       <c r="D13">
-        <v>1.025097295402304</v>
+        <v>1.030197019839373</v>
       </c>
       <c r="E13">
-        <v>0.9507350497410497</v>
+        <v>1.008986681072115</v>
       </c>
       <c r="F13">
-        <v>0.9496036373605135</v>
+        <v>1.019772004753836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044047982125884</v>
+        <v>1.030984007978691</v>
       </c>
       <c r="J13">
-        <v>0.9665354343405644</v>
+        <v>1.012898901966501</v>
       </c>
       <c r="K13">
-        <v>1.039716489904239</v>
+        <v>1.033821333154826</v>
       </c>
       <c r="L13">
-        <v>0.9668236788514343</v>
+        <v>1.01269332959348</v>
       </c>
       <c r="M13">
-        <v>0.9657169869911465</v>
+        <v>1.023436311152422</v>
       </c>
       <c r="N13">
-        <v>0.9679080255204918</v>
+        <v>1.014337334588421</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9349423825372581</v>
+        <v>1.00625826535347</v>
       </c>
       <c r="D14">
-        <v>1.02550720283726</v>
+        <v>1.030270450991202</v>
       </c>
       <c r="E14">
-        <v>0.9516958700701412</v>
+        <v>1.009167545253745</v>
       </c>
       <c r="F14">
-        <v>0.9508988811661658</v>
+        <v>1.020007898235087</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044205252368583</v>
+        <v>1.030997948271846</v>
       </c>
       <c r="J14">
-        <v>0.967336484229506</v>
+        <v>1.013047430632908</v>
       </c>
       <c r="K14">
-        <v>1.039979965586271</v>
+        <v>1.033862670294211</v>
       </c>
       <c r="L14">
-        <v>0.9676083388212506</v>
+        <v>1.012840892119786</v>
       </c>
       <c r="M14">
-        <v>0.9668285142659544</v>
+        <v>1.02363910551259</v>
       </c>
       <c r="N14">
-        <v>0.9687102129921579</v>
+        <v>1.014486074182571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.93567968990515</v>
+        <v>1.00638895257332</v>
       </c>
       <c r="D15">
-        <v>1.025758900789318</v>
+        <v>1.030315684107427</v>
       </c>
       <c r="E15">
-        <v>0.9522852131290404</v>
+        <v>1.009278986303561</v>
       </c>
       <c r="F15">
-        <v>0.9516929879822978</v>
+        <v>1.020153215954617</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044301471967872</v>
+        <v>1.031006495673641</v>
       </c>
       <c r="J15">
-        <v>0.9678276003572713</v>
+        <v>1.013138929998941</v>
       </c>
       <c r="K15">
-        <v>1.040141535761752</v>
+        <v>1.033888110866782</v>
       </c>
       <c r="L15">
-        <v>0.9680894716386466</v>
+        <v>1.012931800632363</v>
       </c>
       <c r="M15">
-        <v>0.9675098876890329</v>
+        <v>1.023764017560877</v>
       </c>
       <c r="N15">
-        <v>0.9692020265611563</v>
+        <v>1.014577703488199</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9399167642208387</v>
+        <v>1.007149542975283</v>
       </c>
       <c r="D16">
-        <v>1.027210956710655</v>
+        <v>1.030578802627726</v>
       </c>
       <c r="E16">
-        <v>0.9556761156462416</v>
+        <v>1.009927693911421</v>
       </c>
       <c r="F16">
-        <v>0.9562566248472305</v>
+        <v>1.020998663438169</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044851267092726</v>
+        <v>1.031055608510028</v>
       </c>
       <c r="J16">
-        <v>0.9706499219597333</v>
+        <v>1.013671282865223</v>
       </c>
       <c r="K16">
-        <v>1.041070407535198</v>
+        <v>1.034035748337195</v>
       </c>
       <c r="L16">
-        <v>0.9708553905886724</v>
+        <v>1.013460781761361</v>
       </c>
       <c r="M16">
-        <v>0.9714241423227274</v>
+        <v>1.024490508297005</v>
       </c>
       <c r="N16">
-        <v>0.9720283561840185</v>
+        <v>1.015110812356613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9425283866874892</v>
+        <v>1.007626586068018</v>
       </c>
       <c r="D17">
-        <v>1.028110599326235</v>
+        <v>1.030743709440082</v>
       </c>
       <c r="E17">
-        <v>0.9577696837954651</v>
+        <v>1.010334676465269</v>
       </c>
       <c r="F17">
-        <v>0.9590695861946926</v>
+        <v>1.021528672146503</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045187257269042</v>
+        <v>1.031085854416069</v>
       </c>
       <c r="J17">
-        <v>0.9723894879283984</v>
+        <v>1.014005027787794</v>
       </c>
       <c r="K17">
-        <v>1.041643068677057</v>
+        <v>1.03412797096188</v>
       </c>
       <c r="L17">
-        <v>0.9725610236745781</v>
+        <v>1.013792470767327</v>
       </c>
       <c r="M17">
-        <v>0.973835464592958</v>
+        <v>1.024945733426109</v>
       </c>
       <c r="N17">
-        <v>0.9737703925358899</v>
+        <v>1.015445031235254</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9440357057847767</v>
+        <v>1.007904818412832</v>
       </c>
       <c r="D18">
-        <v>1.028631387548769</v>
+        <v>1.030839845559506</v>
       </c>
       <c r="E18">
-        <v>0.9589792192302355</v>
+        <v>1.01057208667803</v>
       </c>
       <c r="F18">
-        <v>0.9606930981364467</v>
+        <v>1.021837703713386</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04538008744552</v>
+        <v>1.031103293878347</v>
       </c>
       <c r="J18">
-        <v>0.9733934526673736</v>
+        <v>1.014199629176507</v>
       </c>
       <c r="K18">
-        <v>1.041973552930032</v>
+        <v>1.034181623191605</v>
       </c>
       <c r="L18">
-        <v>0.9735456969356576</v>
+        <v>1.013985894198398</v>
       </c>
       <c r="M18">
-        <v>0.9752266612447575</v>
+        <v>1.025211085271136</v>
       </c>
       <c r="N18">
-        <v>0.974775783019951</v>
+        <v>1.015639908980261</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9445470082045112</v>
+        <v>1.007999685359256</v>
       </c>
       <c r="D19">
-        <v>1.028808298457785</v>
+        <v>1.030872616743965</v>
       </c>
       <c r="E19">
-        <v>0.9593897115885961</v>
+        <v>1.010653041581723</v>
       </c>
       <c r="F19">
-        <v>0.961243809876422</v>
+        <v>1.021943056336174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045445308614069</v>
+        <v>1.031109205925251</v>
       </c>
       <c r="J19">
-        <v>0.973734001574345</v>
+        <v>1.014265972021963</v>
       </c>
       <c r="K19">
-        <v>1.042085644935173</v>
+        <v>1.034199893488104</v>
       </c>
       <c r="L19">
-        <v>0.9738797510734915</v>
+        <v>1.014051838984098</v>
       </c>
       <c r="M19">
-        <v>0.9756984817744235</v>
+        <v>1.025301534087788</v>
       </c>
       <c r="N19">
-        <v>0.9751168155454317</v>
+        <v>1.015706346040168</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9422498529920872</v>
+        <v>1.007575405830645</v>
       </c>
       <c r="D20">
-        <v>1.028014487259233</v>
+        <v>1.030726021785794</v>
       </c>
       <c r="E20">
-        <v>0.957546274176206</v>
+        <v>1.01029100860286</v>
       </c>
       <c r="F20">
-        <v>0.9587695798955275</v>
+        <v>1.021471818999161</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045151535406966</v>
+        <v>1.031082630254263</v>
       </c>
       <c r="J20">
-        <v>0.9722039640238266</v>
+        <v>1.013969226997228</v>
       </c>
       <c r="K20">
-        <v>1.041581995022186</v>
+        <v>1.034118090784824</v>
       </c>
       <c r="L20">
-        <v>0.972379088181025</v>
+        <v>1.013756888360281</v>
       </c>
       <c r="M20">
-        <v>0.9735783460605656</v>
+        <v>1.024896910021958</v>
       </c>
       <c r="N20">
-        <v>0.9735846051660935</v>
+        <v>1.01540917960346</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9345890082635899</v>
+        <v>1.006195803406372</v>
       </c>
       <c r="D21">
-        <v>1.025386674841525</v>
+        <v>1.030248829477068</v>
       </c>
       <c r="E21">
-        <v>0.9514134872842931</v>
+        <v>1.009114284293127</v>
       </c>
       <c r="F21">
-        <v>0.9505182881719602</v>
+        <v>1.019938438498648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044159082149092</v>
+        <v>1.03099385188338</v>
       </c>
       <c r="J21">
-        <v>0.967101105236324</v>
+        <v>1.013003695572629</v>
       </c>
       <c r="K21">
-        <v>1.039902538503884</v>
+        <v>1.033850503493526</v>
       </c>
       <c r="L21">
-        <v>0.9673777621523312</v>
+        <v>1.012797440643059</v>
       </c>
       <c r="M21">
-        <v>0.9665019246663658</v>
+        <v>1.023579395184883</v>
       </c>
       <c r="N21">
-        <v>0.9684744997338068</v>
+        <v>1.01444227701349</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9296138204141524</v>
+        <v>1.005328200303288</v>
       </c>
       <c r="D22">
-        <v>1.023697129073073</v>
+        <v>1.029948351105582</v>
       </c>
       <c r="E22">
-        <v>0.9474430040154371</v>
+        <v>1.008374635920009</v>
       </c>
       <c r="F22">
-        <v>0.9451602402526412</v>
+        <v>1.018973294494842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043505543617958</v>
+        <v>1.030936213389767</v>
       </c>
       <c r="J22">
-        <v>0.9637873635576719</v>
+        <v>1.012396015915169</v>
       </c>
       <c r="K22">
-        <v>1.038813318085622</v>
+        <v>1.033681010865718</v>
       </c>
       <c r="L22">
-        <v>0.9641328293531093</v>
+        <v>1.012193778750151</v>
       </c>
       <c r="M22">
-        <v>0.9619024095772023</v>
+        <v>1.022749440839736</v>
       </c>
       <c r="N22">
-        <v>0.9651560521618797</v>
+        <v>1.013833734381215</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9322670315839823</v>
+        <v>1.005788152456636</v>
       </c>
       <c r="D23">
-        <v>1.024596413971614</v>
+        <v>1.030107682275835</v>
       </c>
       <c r="E23">
-        <v>0.9495592063928021</v>
+        <v>1.008766718720886</v>
       </c>
       <c r="F23">
-        <v>0.9480175354104409</v>
+        <v>1.019485035981519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043854858485229</v>
+        <v>1.030966940970075</v>
       </c>
       <c r="J23">
-        <v>0.9655544950111016</v>
+        <v>1.012718217051296</v>
       </c>
       <c r="K23">
-        <v>1.039393960469002</v>
+        <v>1.033770980184498</v>
       </c>
       <c r="L23">
-        <v>0.965862988860083</v>
+        <v>1.012513831655473</v>
       </c>
       <c r="M23">
-        <v>0.9643555948713237</v>
+        <v>1.023189566100286</v>
       </c>
       <c r="N23">
-        <v>0.9669256931446659</v>
+        <v>1.014156393079912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9423757596605694</v>
+        <v>1.007598532034943</v>
       </c>
       <c r="D24">
-        <v>1.028057928379903</v>
+        <v>1.030734014234042</v>
       </c>
       <c r="E24">
-        <v>0.9576472591320252</v>
+        <v>1.010310740155553</v>
       </c>
       <c r="F24">
-        <v>0.9589051929517627</v>
+        <v>1.021497508839954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045167686292169</v>
+        <v>1.031084087739895</v>
       </c>
       <c r="J24">
-        <v>0.9722878272451253</v>
+        <v>1.013985404038529</v>
       </c>
       <c r="K24">
-        <v>1.041609602501086</v>
+        <v>1.034122555643315</v>
       </c>
       <c r="L24">
-        <v>0.9724613284104839</v>
+        <v>1.013772966657916</v>
       </c>
       <c r="M24">
-        <v>0.9736945739662718</v>
+        <v>1.024918971752018</v>
       </c>
       <c r="N24">
-        <v>0.9736685874827858</v>
+        <v>1.015425379618015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9534844260677515</v>
+        <v>1.009698649969702</v>
       </c>
       <c r="D25">
-        <v>1.031920239615046</v>
+        <v>1.031458820838607</v>
       </c>
       <c r="E25">
-        <v>0.9665815429574851</v>
+        <v>1.012103445825459</v>
       </c>
       <c r="F25">
-        <v>0.9708691005578173</v>
+        <v>1.023828429331001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046568158231822</v>
+        <v>1.031212085640675</v>
       </c>
       <c r="J25">
-        <v>0.9796854474986556</v>
+        <v>1.015453306994268</v>
       </c>
       <c r="K25">
-        <v>1.044042449213244</v>
+        <v>1.034525056006715</v>
       </c>
       <c r="L25">
-        <v>0.9797217805183563</v>
+        <v>1.015232357532454</v>
       </c>
       <c r="M25">
-        <v>0.9839371214006724</v>
+        <v>1.026919063347634</v>
       </c>
       <c r="N25">
-        <v>0.9810767132055951</v>
+        <v>1.016895367164322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011373231998788</v>
+        <v>0.9619082128712809</v>
       </c>
       <c r="D2">
-        <v>1.032035228338414</v>
+        <v>1.034883947032932</v>
       </c>
       <c r="E2">
-        <v>1.013534140562208</v>
+        <v>0.9733888111354644</v>
       </c>
       <c r="F2">
-        <v>1.025684107681387</v>
+        <v>0.9799376687298438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031307747648028</v>
+        <v>1.047591411962661</v>
       </c>
       <c r="J2">
-        <v>1.016622080019619</v>
+        <v>0.9852911599927801</v>
       </c>
       <c r="K2">
-        <v>1.034841621578659</v>
+        <v>1.045877778572299</v>
       </c>
       <c r="L2">
-        <v>1.016395004300311</v>
+        <v>0.9852317677621584</v>
       </c>
       <c r="M2">
-        <v>1.028508958798792</v>
+        <v>0.9916837650607463</v>
       </c>
       <c r="N2">
-        <v>1.01806579998143</v>
+        <v>0.9866903864544455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01258891769867</v>
+        <v>0.9677993921373489</v>
       </c>
       <c r="D3">
-        <v>1.032452732606883</v>
+        <v>1.036971516753018</v>
       </c>
       <c r="E3">
-        <v>1.014573472503753</v>
+        <v>0.9781661975324661</v>
       </c>
       <c r="F3">
-        <v>1.027029552794126</v>
+        <v>0.9862761708278632</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031373466714418</v>
+        <v>1.048282343771445</v>
       </c>
       <c r="J3">
-        <v>1.017469576625707</v>
+        <v>0.9892081029186066</v>
       </c>
       <c r="K3">
-        <v>1.035068862086806</v>
+        <v>1.047152223778787</v>
       </c>
       <c r="L3">
-        <v>1.017238433326009</v>
+        <v>0.989086284827244</v>
       </c>
       <c r="M3">
-        <v>1.029660299467545</v>
+        <v>0.9970877154212154</v>
       </c>
       <c r="N3">
-        <v>1.018914500129908</v>
+        <v>0.9906128918885062</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01337547087054</v>
+        <v>0.9715153170774243</v>
       </c>
       <c r="D4">
-        <v>1.032722402689852</v>
+        <v>1.038293563950809</v>
       </c>
       <c r="E4">
-        <v>1.01524624216872</v>
+        <v>0.9811867395781394</v>
       </c>
       <c r="F4">
-        <v>1.027899267877749</v>
+        <v>0.9902721391240149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031414256784638</v>
+        <v>1.048706026449768</v>
       </c>
       <c r="J4">
-        <v>1.01801744984403</v>
+        <v>0.9916768378240144</v>
       </c>
       <c r="K4">
-        <v>1.035214684451568</v>
+        <v>1.047950784218929</v>
       </c>
       <c r="L4">
-        <v>1.017783849402546</v>
+        <v>0.9915176556144022</v>
       </c>
       <c r="M4">
-        <v>1.030403892602807</v>
+        <v>1.000489406310746</v>
       </c>
       <c r="N4">
-        <v>1.019463151391042</v>
+        <v>0.9930851326806477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013706122056136</v>
+        <v>0.9730556097885574</v>
       </c>
       <c r="D5">
-        <v>1.032835654442424</v>
+        <v>1.038842610734946</v>
       </c>
       <c r="E5">
-        <v>1.015529136345781</v>
+        <v>0.9824404248267649</v>
       </c>
       <c r="F5">
-        <v>1.02826468856932</v>
+        <v>0.9919279434311533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031430989025182</v>
+        <v>1.048878634618089</v>
       </c>
       <c r="J5">
-        <v>1.018247654262254</v>
+        <v>0.9926996480025218</v>
       </c>
       <c r="K5">
-        <v>1.035275695452555</v>
+        <v>1.048280365600418</v>
       </c>
       <c r="L5">
-        <v>1.018013062514757</v>
+        <v>0.9925254499076616</v>
       </c>
       <c r="M5">
-        <v>1.030716165782586</v>
+        <v>1.001897703839485</v>
       </c>
       <c r="N5">
-        <v>1.019693682725946</v>
+        <v>0.9941093953669267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013761638996323</v>
+        <v>0.9733129795246349</v>
       </c>
       <c r="D6">
-        <v>1.032854662961379</v>
+        <v>1.038934406703215</v>
       </c>
       <c r="E6">
-        <v>1.015576639187636</v>
+        <v>0.9826499988960969</v>
       </c>
       <c r="F6">
-        <v>1.028326032218047</v>
+        <v>0.9922045788815865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031433774034169</v>
+        <v>1.048907295879915</v>
       </c>
       <c r="J6">
-        <v>1.018286299517072</v>
+        <v>0.9928705196042524</v>
       </c>
       <c r="K6">
-        <v>1.035285922265813</v>
+        <v>1.048335347239017</v>
       </c>
       <c r="L6">
-        <v>1.018051543763504</v>
+        <v>0.9926938399355711</v>
       </c>
       <c r="M6">
-        <v>1.030768578334837</v>
+        <v>1.002132913520074</v>
       </c>
       <c r="N6">
-        <v>1.019732382861457</v>
+        <v>0.994280509625931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013379889106574</v>
+        <v>0.9715359831077442</v>
       </c>
       <c r="D7">
-        <v>1.032723916429626</v>
+        <v>1.038300926650118</v>
       </c>
       <c r="E7">
-        <v>1.015250021969976</v>
+        <v>0.9812035538413584</v>
       </c>
       <c r="F7">
-        <v>1.02790415145916</v>
+        <v>0.990294357301528</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031414481996706</v>
+        <v>1.048708354372254</v>
       </c>
       <c r="J7">
-        <v>1.018020526322211</v>
+        <v>0.991690562888094</v>
       </c>
       <c r="K7">
-        <v>1.035215500835358</v>
+        <v>1.047955212056898</v>
       </c>
       <c r="L7">
-        <v>1.017786912471316</v>
+        <v>0.9915311773585079</v>
       </c>
       <c r="M7">
-        <v>1.030408066519731</v>
+        <v>1.000508308363628</v>
       </c>
       <c r="N7">
-        <v>1.019466232238175</v>
+        <v>0.9930988772358922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011784096139778</v>
+        <v>0.9639197514978984</v>
       </c>
       <c r="D8">
-        <v>1.032176424753418</v>
+        <v>1.035595491456769</v>
       </c>
       <c r="E8">
-        <v>1.013885336231729</v>
+        <v>0.9750184903047564</v>
       </c>
       <c r="F8">
-        <v>1.026138990515252</v>
+        <v>0.9821023499566272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031330316478876</v>
+        <v>1.047829818200075</v>
       </c>
       <c r="J8">
-        <v>1.016908602753379</v>
+        <v>0.9866289708916473</v>
       </c>
       <c r="K8">
-        <v>1.034918669894545</v>
+        <v>1.046313955876142</v>
       </c>
       <c r="L8">
-        <v>1.016680116060586</v>
+        <v>0.9865478333436913</v>
       </c>
       <c r="M8">
-        <v>1.028898351172271</v>
+        <v>0.9935303410168758</v>
       </c>
       <c r="N8">
-        <v>1.018352729610336</v>
+        <v>0.9880300971982381</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00897140005891</v>
+        <v>0.9497087284180005</v>
       </c>
       <c r="D9">
-        <v>1.031208057710918</v>
+        <v>1.030601182758995</v>
       </c>
       <c r="E9">
-        <v>1.011482456214916</v>
+        <v>0.963539464554693</v>
       </c>
       <c r="F9">
-        <v>1.023021709170121</v>
+        <v>0.9668031066854672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031168749680305</v>
+        <v>1.046097979108882</v>
       </c>
       <c r="J9">
-        <v>1.014945248553917</v>
+        <v>0.9771715527494157</v>
       </c>
       <c r="K9">
-        <v>1.034386347070717</v>
+        <v>1.043216547898251</v>
       </c>
       <c r="L9">
-        <v>1.014727143959245</v>
+        <v>0.9772531501463291</v>
       </c>
       <c r="M9">
-        <v>1.026227213278787</v>
+        <v>0.9804587664618082</v>
       </c>
       <c r="N9">
-        <v>1.016386587222711</v>
+        <v>0.9785592484374637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007095629892131</v>
+        <v>0.9396194154496437</v>
       </c>
       <c r="D10">
-        <v>1.030560159682543</v>
+        <v>1.027108747476311</v>
       </c>
       <c r="E10">
-        <v>1.009881704194111</v>
+        <v>0.9554379198356923</v>
       </c>
       <c r="F10">
-        <v>1.020938751910089</v>
+        <v>0.9559363531109243</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03105216305053</v>
+        <v>1.044812867321203</v>
       </c>
       <c r="J10">
-        <v>1.013633557449773</v>
+        <v>0.9704518584065058</v>
       </c>
       <c r="K10">
-        <v>1.034025307423701</v>
+        <v>1.041005207948971</v>
       </c>
       <c r="L10">
-        <v>1.013423291561006</v>
+        <v>0.9706612310164093</v>
       </c>
       <c r="M10">
-        <v>1.024439039966655</v>
+        <v>0.9711495311921668</v>
       </c>
       <c r="N10">
-        <v>1.015073033366746</v>
+        <v>0.9718300113578273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006283211648611</v>
+        <v>0.9350833373637055</v>
       </c>
       <c r="D11">
-        <v>1.030279085851953</v>
+        <v>1.025555298370028</v>
       </c>
       <c r="E11">
-        <v>1.009188817235273</v>
+        <v>0.9518085213072127</v>
       </c>
       <c r="F11">
-        <v>1.020035638405816</v>
+        <v>0.9510506937983084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030999582288564</v>
+        <v>1.044223659090448</v>
       </c>
       <c r="J11">
-        <v>1.013064897179479</v>
+        <v>0.9674303730979331</v>
       </c>
       <c r="K11">
-        <v>1.033867528167864</v>
+        <v>1.040010851714998</v>
       </c>
       <c r="L11">
-        <v>1.012858245621728</v>
+        <v>0.9677003152972697</v>
       </c>
       <c r="M11">
-        <v>1.023662951298119</v>
+        <v>0.9669587810086673</v>
       </c>
       <c r="N11">
-        <v>1.014503565533642</v>
+        <v>0.9688042351935471</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005981410386023</v>
+        <v>0.9333712437434131</v>
       </c>
       <c r="D12">
-        <v>1.030174604816601</v>
+        <v>1.024971848344863</v>
       </c>
       <c r="E12">
-        <v>1.008931483744683</v>
+        <v>0.9504407424512338</v>
       </c>
       <c r="F12">
-        <v>1.019700001205032</v>
+        <v>0.9492067469820026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030979736833185</v>
+        <v>1.043999711345411</v>
       </c>
       <c r="J12">
-        <v>1.012853565875572</v>
+        <v>0.9662899744529415</v>
       </c>
       <c r="K12">
-        <v>1.03380870579526</v>
+        <v>1.039635771007255</v>
       </c>
       <c r="L12">
-        <v>1.012648290128377</v>
+        <v>0.966583267517099</v>
       </c>
       <c r="M12">
-        <v>1.023374404485686</v>
+        <v>0.9653763524502244</v>
       </c>
       <c r="N12">
-        <v>1.014291934115043</v>
+        <v>0.9676622170516739</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00604614932566</v>
+        <v>0.9337397595198209</v>
       </c>
       <c r="D13">
-        <v>1.030197019839373</v>
+        <v>1.025097295402304</v>
       </c>
       <c r="E13">
-        <v>1.008986681072115</v>
+        <v>0.9507350497410495</v>
       </c>
       <c r="F13">
-        <v>1.019772004753836</v>
+        <v>0.9496036373605132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030984007978691</v>
+        <v>1.044047982125884</v>
       </c>
       <c r="J13">
-        <v>1.012898901966501</v>
+        <v>0.9665354343405644</v>
       </c>
       <c r="K13">
-        <v>1.033821333154826</v>
+        <v>1.039716489904239</v>
       </c>
       <c r="L13">
-        <v>1.01269332959348</v>
+        <v>0.9668236788514341</v>
       </c>
       <c r="M13">
-        <v>1.023436311152422</v>
+        <v>0.9657169869911463</v>
       </c>
       <c r="N13">
-        <v>1.014337334588421</v>
+        <v>0.967908025520492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00625826535347</v>
+        <v>0.9349423825372578</v>
       </c>
       <c r="D14">
-        <v>1.030270450991202</v>
+        <v>1.025507202837259</v>
       </c>
       <c r="E14">
-        <v>1.009167545253745</v>
+        <v>0.9516958700701408</v>
       </c>
       <c r="F14">
-        <v>1.020007898235087</v>
+        <v>0.9508988811661655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030997948271846</v>
+        <v>1.044205252368583</v>
       </c>
       <c r="J14">
-        <v>1.013047430632908</v>
+        <v>0.9673364842295058</v>
       </c>
       <c r="K14">
-        <v>1.033862670294211</v>
+        <v>1.039979965586271</v>
       </c>
       <c r="L14">
-        <v>1.012840892119786</v>
+        <v>0.9676083388212502</v>
       </c>
       <c r="M14">
-        <v>1.02363910551259</v>
+        <v>0.9668285142659541</v>
       </c>
       <c r="N14">
-        <v>1.014486074182571</v>
+        <v>0.9687102129921573</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00638895257332</v>
+        <v>0.93567968990515</v>
       </c>
       <c r="D15">
-        <v>1.030315684107427</v>
+        <v>1.025758900789318</v>
       </c>
       <c r="E15">
-        <v>1.009278986303561</v>
+        <v>0.9522852131290405</v>
       </c>
       <c r="F15">
-        <v>1.020153215954617</v>
+        <v>0.9516929879822982</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031006495673641</v>
+        <v>1.044301471967873</v>
       </c>
       <c r="J15">
-        <v>1.013138929998941</v>
+        <v>0.9678276003572714</v>
       </c>
       <c r="K15">
-        <v>1.033888110866782</v>
+        <v>1.040141535761752</v>
       </c>
       <c r="L15">
-        <v>1.012931800632363</v>
+        <v>0.9680894716386467</v>
       </c>
       <c r="M15">
-        <v>1.023764017560877</v>
+        <v>0.9675098876890331</v>
       </c>
       <c r="N15">
-        <v>1.014577703488199</v>
+        <v>0.9692020265611563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007149542975283</v>
+        <v>0.939916764220839</v>
       </c>
       <c r="D16">
-        <v>1.030578802627726</v>
+        <v>1.027210956710655</v>
       </c>
       <c r="E16">
-        <v>1.009927693911421</v>
+        <v>0.9556761156462417</v>
       </c>
       <c r="F16">
-        <v>1.020998663438169</v>
+        <v>0.9562566248472307</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031055608510028</v>
+        <v>1.044851267092726</v>
       </c>
       <c r="J16">
-        <v>1.013671282865223</v>
+        <v>0.9706499219597337</v>
       </c>
       <c r="K16">
-        <v>1.034035748337195</v>
+        <v>1.041070407535198</v>
       </c>
       <c r="L16">
-        <v>1.013460781761361</v>
+        <v>0.9708553905886725</v>
       </c>
       <c r="M16">
-        <v>1.024490508297005</v>
+        <v>0.9714241423227276</v>
       </c>
       <c r="N16">
-        <v>1.015110812356613</v>
+        <v>0.9720283561840187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007626586068018</v>
+        <v>0.9425283866874896</v>
       </c>
       <c r="D17">
-        <v>1.030743709440082</v>
+        <v>1.028110599326235</v>
       </c>
       <c r="E17">
-        <v>1.010334676465269</v>
+        <v>0.9577696837954651</v>
       </c>
       <c r="F17">
-        <v>1.021528672146503</v>
+        <v>0.9590695861946928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031085854416069</v>
+        <v>1.045187257269042</v>
       </c>
       <c r="J17">
-        <v>1.014005027787794</v>
+        <v>0.9723894879283987</v>
       </c>
       <c r="K17">
-        <v>1.03412797096188</v>
+        <v>1.041643068677057</v>
       </c>
       <c r="L17">
-        <v>1.013792470767327</v>
+        <v>0.9725610236745783</v>
       </c>
       <c r="M17">
-        <v>1.024945733426109</v>
+        <v>0.9738354645929582</v>
       </c>
       <c r="N17">
-        <v>1.015445031235254</v>
+        <v>0.97377039253589</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007904818412832</v>
+        <v>0.944035705784777</v>
       </c>
       <c r="D18">
-        <v>1.030839845559506</v>
+        <v>1.028631387548769</v>
       </c>
       <c r="E18">
-        <v>1.01057208667803</v>
+        <v>0.9589792192302361</v>
       </c>
       <c r="F18">
-        <v>1.021837703713386</v>
+        <v>0.9606930981364468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031103293878347</v>
+        <v>1.04538008744552</v>
       </c>
       <c r="J18">
-        <v>1.014199629176507</v>
+        <v>0.9733934526673741</v>
       </c>
       <c r="K18">
-        <v>1.034181623191605</v>
+        <v>1.041973552930032</v>
       </c>
       <c r="L18">
-        <v>1.013985894198398</v>
+        <v>0.9735456969356581</v>
       </c>
       <c r="M18">
-        <v>1.025211085271136</v>
+        <v>0.9752266612447579</v>
       </c>
       <c r="N18">
-        <v>1.015639908980261</v>
+        <v>0.9747757830199514</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007999685359256</v>
+        <v>0.9445470082045111</v>
       </c>
       <c r="D19">
-        <v>1.030872616743965</v>
+        <v>1.028808298457785</v>
       </c>
       <c r="E19">
-        <v>1.010653041581723</v>
+        <v>0.959389711588596</v>
       </c>
       <c r="F19">
-        <v>1.021943056336174</v>
+        <v>0.9612438098764219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031109205925251</v>
+        <v>1.045445308614068</v>
       </c>
       <c r="J19">
-        <v>1.014265972021963</v>
+        <v>0.9737340015743448</v>
       </c>
       <c r="K19">
-        <v>1.034199893488104</v>
+        <v>1.042085644935173</v>
       </c>
       <c r="L19">
-        <v>1.014051838984098</v>
+        <v>0.9738797510734911</v>
       </c>
       <c r="M19">
-        <v>1.025301534087788</v>
+        <v>0.9756984817744233</v>
       </c>
       <c r="N19">
-        <v>1.015706346040168</v>
+        <v>0.9751168155454313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007575405830645</v>
+        <v>0.9422498529920873</v>
       </c>
       <c r="D20">
-        <v>1.030726021785794</v>
+        <v>1.028014487259233</v>
       </c>
       <c r="E20">
-        <v>1.01029100860286</v>
+        <v>0.9575462741762059</v>
       </c>
       <c r="F20">
-        <v>1.021471818999161</v>
+        <v>0.9587695798955276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031082630254263</v>
+        <v>1.045151535406966</v>
       </c>
       <c r="J20">
-        <v>1.013969226997228</v>
+        <v>0.9722039640238266</v>
       </c>
       <c r="K20">
-        <v>1.034118090784824</v>
+        <v>1.041581995022186</v>
       </c>
       <c r="L20">
-        <v>1.013756888360281</v>
+        <v>0.972379088181025</v>
       </c>
       <c r="M20">
-        <v>1.024896910021958</v>
+        <v>0.9735783460605657</v>
       </c>
       <c r="N20">
-        <v>1.01540917960346</v>
+        <v>0.9735846051660937</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006195803406372</v>
+        <v>0.9345890082635909</v>
       </c>
       <c r="D21">
-        <v>1.030248829477068</v>
+        <v>1.025386674841525</v>
       </c>
       <c r="E21">
-        <v>1.009114284293127</v>
+        <v>0.9514134872842935</v>
       </c>
       <c r="F21">
-        <v>1.019938438498648</v>
+        <v>0.9505182881719606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03099385188338</v>
+        <v>1.044159082149092</v>
       </c>
       <c r="J21">
-        <v>1.013003695572629</v>
+        <v>0.9671011052363248</v>
       </c>
       <c r="K21">
-        <v>1.033850503493526</v>
+        <v>1.039902538503884</v>
       </c>
       <c r="L21">
-        <v>1.012797440643059</v>
+        <v>0.9673777621523318</v>
       </c>
       <c r="M21">
-        <v>1.023579395184883</v>
+        <v>0.9665019246663662</v>
       </c>
       <c r="N21">
-        <v>1.01444227701349</v>
+        <v>0.9684744997338078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005328200303288</v>
+        <v>0.9296138204141521</v>
       </c>
       <c r="D22">
-        <v>1.029948351105582</v>
+        <v>1.023697129073073</v>
       </c>
       <c r="E22">
-        <v>1.008374635920009</v>
+        <v>0.9474430040154366</v>
       </c>
       <c r="F22">
-        <v>1.018973294494842</v>
+        <v>0.9451602402526407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030936213389767</v>
+        <v>1.043505543617958</v>
       </c>
       <c r="J22">
-        <v>1.012396015915169</v>
+        <v>0.9637873635576716</v>
       </c>
       <c r="K22">
-        <v>1.033681010865718</v>
+        <v>1.038813318085622</v>
       </c>
       <c r="L22">
-        <v>1.012193778750151</v>
+        <v>0.9641328293531087</v>
       </c>
       <c r="M22">
-        <v>1.022749440839736</v>
+        <v>0.9619024095772019</v>
       </c>
       <c r="N22">
-        <v>1.013833734381215</v>
+        <v>0.9651560521618792</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005788152456636</v>
+        <v>0.9322670315839823</v>
       </c>
       <c r="D23">
-        <v>1.030107682275835</v>
+        <v>1.024596413971614</v>
       </c>
       <c r="E23">
-        <v>1.008766718720886</v>
+        <v>0.949559206392802</v>
       </c>
       <c r="F23">
-        <v>1.019485035981519</v>
+        <v>0.9480175354104405</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030966940970075</v>
+        <v>1.043854858485228</v>
       </c>
       <c r="J23">
-        <v>1.012718217051296</v>
+        <v>0.9655544950111017</v>
       </c>
       <c r="K23">
-        <v>1.033770980184498</v>
+        <v>1.039393960469002</v>
       </c>
       <c r="L23">
-        <v>1.012513831655473</v>
+        <v>0.965862988860083</v>
       </c>
       <c r="M23">
-        <v>1.023189566100286</v>
+        <v>0.9643555948713233</v>
       </c>
       <c r="N23">
-        <v>1.014156393079912</v>
+        <v>0.9669256931446658</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007598532034943</v>
+        <v>0.9423757596605692</v>
       </c>
       <c r="D24">
-        <v>1.030734014234042</v>
+        <v>1.028057928379902</v>
       </c>
       <c r="E24">
-        <v>1.010310740155553</v>
+        <v>0.9576472591320249</v>
       </c>
       <c r="F24">
-        <v>1.021497508839954</v>
+        <v>0.9589051929517626</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031084087739895</v>
+        <v>1.045167686292169</v>
       </c>
       <c r="J24">
-        <v>1.013985404038529</v>
+        <v>0.9722878272451253</v>
       </c>
       <c r="K24">
-        <v>1.034122555643315</v>
+        <v>1.041609602501085</v>
       </c>
       <c r="L24">
-        <v>1.013772966657916</v>
+        <v>0.9724613284104837</v>
       </c>
       <c r="M24">
-        <v>1.024918971752018</v>
+        <v>0.9736945739662718</v>
       </c>
       <c r="N24">
-        <v>1.015425379618015</v>
+        <v>0.9736685874827858</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009698649969702</v>
+        <v>0.9534844260677511</v>
       </c>
       <c r="D25">
-        <v>1.031458820838607</v>
+        <v>1.031920239615046</v>
       </c>
       <c r="E25">
-        <v>1.012103445825459</v>
+        <v>0.9665815429574846</v>
       </c>
       <c r="F25">
-        <v>1.023828429331001</v>
+        <v>0.9708691005578169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031212085640675</v>
+        <v>1.046568158231822</v>
       </c>
       <c r="J25">
-        <v>1.015453306994268</v>
+        <v>0.9796854474986554</v>
       </c>
       <c r="K25">
-        <v>1.034525056006715</v>
+        <v>1.044042449213244</v>
       </c>
       <c r="L25">
-        <v>1.015232357532454</v>
+        <v>0.9797217805183557</v>
       </c>
       <c r="M25">
-        <v>1.026919063347634</v>
+        <v>0.9839371214006721</v>
       </c>
       <c r="N25">
-        <v>1.016895367164322</v>
+        <v>0.9810767132055948</v>
       </c>
     </row>
   </sheetData>
